--- a/ncp-gop-transect-summer-2019/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2019/ncp-gop-transect-info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>givenName</t>
   </si>
@@ -170,9 +170,6 @@
     <t>primary production</t>
   </si>
   <si>
-    <t>dissolved oxygen</t>
-  </si>
-  <si>
     <t>Kate</t>
   </si>
   <si>
@@ -221,10 +218,40 @@
     <t>inorganic matter</t>
   </si>
   <si>
+    <t>iode_quality_flag</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>quality not evaluated, not available or unknown</t>
+  </si>
+  <si>
+    <t>questionable/suspect</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>missing data</t>
+  </si>
+  <si>
     <t>Arshia</t>
   </si>
   <si>
     <t>Mehta</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Northeast U.S. Continental Shelf</t>
+  </si>
+  <si>
+    <t>NOAA Large Marine Ecosystems</t>
+  </si>
+  <si>
+    <t>gross primary production</t>
   </si>
 </sst>
 </file>
@@ -598,45 +625,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="A4" sqref="A4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -648,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -811,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -858,19 +940,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -887,16 +969,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -925,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -953,7 +1035,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -983,16 +1065,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -1035,7 +1122,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -1047,7 +1134,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2019/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2019/ncp-gop-transect-info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D079818-349B-41A3-B4DE-744AA6F44DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="2"/>
+    <workbookView xWindow="-30828" yWindow="-4548" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -22,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>givenName</t>
   </si>
@@ -101,9 +96,6 @@
     <t>0000-0001-9620-5382</t>
   </si>
   <si>
-    <t>metadataProvider</t>
-  </si>
-  <si>
     <t>keyword</t>
   </si>
   <si>
@@ -164,9 +156,6 @@
     <t>molePerMeterSquaredPerDay</t>
   </si>
   <si>
-    <t>principalInvestigator</t>
-  </si>
-  <si>
     <t>primary production</t>
   </si>
   <si>
@@ -242,9 +231,6 @@
     <t>Mehta</t>
   </si>
   <si>
-    <t>student</t>
-  </si>
-  <si>
     <t>Northeast U.S. Continental Shelf</t>
   </si>
   <si>
@@ -252,12 +238,18 @@
   </si>
   <si>
     <t>gross primary production</t>
+  </si>
+  <si>
+    <t>principal Investigator</t>
+  </si>
+  <si>
+    <t>metadata Provider</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -624,7 +616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -635,90 +627,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -727,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -797,19 +789,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -826,19 +818,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -855,22 +847,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -884,16 +876,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -926,7 +918,7 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -940,22 +932,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -969,16 +961,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -992,11 +984,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -1004,10 +996,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
@@ -1019,66 +1011,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1090,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1105,36 +1097,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
       <c r="D2">
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2019/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2019/ncp-gop-transect-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D079818-349B-41A3-B4DE-744AA6F44DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADF8093-5B41-4724-8EBF-8004221C9E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-4548" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25104" yWindow="-2916" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>givenName</t>
   </si>
@@ -240,10 +240,19 @@
     <t>gross primary production</t>
   </si>
   <si>
-    <t>principal Investigator</t>
-  </si>
-  <si>
     <t>metadata Provider</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>amehta3@wellesley.edu</t>
+  </si>
+  <si>
+    <t>net ecosystem production</t>
+  </si>
+  <si>
+    <t>net community production</t>
   </si>
 </sst>
 </file>
@@ -722,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -862,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -918,7 +927,7 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -947,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -968,6 +977,9 @@
       </c>
       <c r="D9" t="s">
         <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -989,18 +1001,19 @@
     <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E9" r:id="rId6" display="mailto:amehta3@wellesley.edu" xr:uid="{829C2E55-A235-4E89-BB1D-9AB7B89ED604}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1087,14 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
